--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -782,6 +782,9 @@
       <c r="C41" t="str">
         <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -843,7 +846,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01596101552053171015151510151010101515121010102108402020117546105300</v>
+        <v>01596101552053171015151510151010101515121010102108402020117546105301</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -783,12 +783,96 @@
         <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2</v>
+      </c>
+      <c r="C42" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>731_芍药冰点_undefined_undefined_10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>733_芍药弗莱明_Fleming_undefined_10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>3</v>
+      </c>
+      <c r="C45" t="str">
+        <v>731_芍药冰点_undefined_undefined_10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>552_蓝盆花紫色_Scabiosa caucasica purple_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>424_鼠尾白色_veronica white_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">740_袋鼠爪橙_Kangaroo Paw
+red /green /orange / yellow_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -846,7 +930,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01596101552053171015151510151010101515121010102108402020117546105301</v>
+        <v>015961015520531710151515101510101015151210101021084020201175461053015204561010101050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -869,6 +869,9 @@
       <c r="C51" t="str">
         <v>504_大花葱_Allium _undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -930,7 +933,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015961015520531710151515101510101015151210101021084020201175461053015204561010101050</v>
+        <v>015961015520531710151515101510101015151210101021084020201175461053015204561010101051</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -870,12 +870,165 @@
         <v>504_大花葱_Allium _undefined_1bunch</v>
       </c>
       <c r="F51" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>4</v>
+      </c>
+      <c r="C53" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>599_黄金叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F57" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F58" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>103_绣球秋蓝_Hydrangea Vintage Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>239_流星雨_Fire Works_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>68_粉黛_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L70"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -933,7 +1086,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015961015520531710151515101510101015151210101021084020201175461053015204561010101051</v>
+        <v>0159610155205317101515151015101010151512101010210840202011754610530152045610101010510101551052015101010101055101010150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -1021,9 +1021,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" xml:space="preserve">
       <c r="A70" t="str">
         <v>5</v>
+      </c>
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -1029,6 +1029,9 @@
         <v xml:space="preserve">373_龙柳_Salix
 _undefined_1bunch</v>
       </c>
+      <c r="F70" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1090,7 +1093,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0159610155205317101515151015101010151512101010210840202011754610530152045610101010510101551052015101010101055101010150</v>
+        <v>0159610155205317101515151015101010151512101010210840202011754610530152045610101010510101551052015101010101055101010152</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -1030,7 +1030,7 @@
 _undefined_1bunch</v>
       </c>
       <c r="F70" t="str">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1093,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0159610155205317101515151015101010151512101010210840202011754610530152045610101010510101551052015101010101055101010152</v>
+        <v>01596101552053171015151510151010101515121010102108402020117546105301520456101010105101015510520151010101010551010101520</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -1095,6 +1095,9 @@
       <c r="G2" t="str">
         <v>01596101552053171015151510151010101515121010102108402020117546105301520456101010105101015510520151010101010551010101520</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,66 +446,63 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F2" t="str">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F3" t="str">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>262_多头冰淇淋_ice cream spray_Rosa rugosa Thunb._10stems</v>
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F4" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F5" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F6" t="str">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="str">
-        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F7" t="str">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>2</v>
-      </c>
       <c r="C8" t="str">
-        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F8" t="str">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
-        <v>758_芍药凯瑟琳_Catherine_undefined_10stems</v>
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F9" t="str">
         <v>5</v>
@@ -513,61 +510,59 @@
     </row>
     <row r="10">
       <c r="C10" t="str">
-        <v>731_芍药冰点_undefined_undefined_10stems</v>
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
       <c r="F10" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>3</v>
-      </c>
       <c r="C11" t="str">
-        <v>731_芍药冰点_undefined_undefined_10stems</v>
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
       <c r="F11" t="str">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="str">
-        <v>552_蓝盆花紫色_Scabiosa caucasica purple_undefined_1bunch</v>
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
       </c>
       <c r="F12" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <v>2</v>
+      </c>
       <c r="C13" t="str">
-        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
       </c>
       <c r="F13" t="str">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="str">
-        <v>239_流星雨_Fire Works_Rosa rugosa Thunb._10stems</v>
+        <v>348_万年青_undefined_undefined_1bunch</v>
       </c>
       <c r="F14" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>4</v>
-      </c>
-      <c r="C15" t="str">
-        <v>599_黄金叶_undefined_undefined_1bunch</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_单瓣菟葵粉 
+green_undefined_undefined_1bunch</v>
       </c>
       <c r="F15" t="str">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="str">
-        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
       <c r="F16" t="str">
         <v>10</v>
@@ -575,82 +570,81 @@
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>424_鼠尾白色_veronica white_undefined_1bunch</v>
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
       </c>
       <c r="F17" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>336_澳洲狐尾草_foxtail grass_undefined_1bunch</v>
+        <v>356_绿枫叶山货_maple leaf small_undefined_1bunch</v>
       </c>
       <c r="F18" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
-      <c r="C19" t="str" xml:space="preserve">
-        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
-pink_undefined_1bunch</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
       <c r="F19" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
-      <c r="C20" t="str" xml:space="preserve">
-        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
-white_undefined_1bunch</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
       </c>
       <c r="F20" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" xml:space="preserve">
-      <c r="C21" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>641_绿枫叶_maple leaf_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="str">
-        <v>101_绣球秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
       </c>
       <c r="F22" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="str">
-        <v>101_绣球秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">460_袋鼠爪黄_Kangaroo Paw
+red /green /orange / yellow_undefined_1bunch</v>
       </c>
       <c r="F23" t="str">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="str">
-        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
       </c>
       <c r="F24" t="str">
         <v>10</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" t="str">
-        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+    <row r="25" xml:space="preserve">
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕深蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
       </c>
       <c r="F25" t="str">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="str">
-        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
       </c>
       <c r="F26" t="str">
         <v>10</v>
@@ -658,18 +652,15 @@
     </row>
     <row r="27">
       <c r="C27" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
       </c>
       <c r="F27" t="str">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v>5</v>
-      </c>
       <c r="C28" t="str">
-        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+        <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
       </c>
       <c r="F28" t="str">
         <v>10</v>
@@ -677,365 +668,28 @@
     </row>
     <row r="29">
       <c r="C29" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F29" t="str">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
-        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
       </c>
       <c r="F30" t="str">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="str">
-        <v>504_大花葱_Allium _undefined_1bunch</v>
-      </c>
-      <c r="F31" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str">
-        <v>6</v>
-      </c>
-      <c r="C32" t="str" xml:space="preserve">
-        <v xml:space="preserve">373_龙柳_Salix
-_undefined_1bunch</v>
-      </c>
-      <c r="F32" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>1</v>
-      </c>
-      <c r="C33" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F33" t="str">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="str">
-        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F34" t="str">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F35" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="str">
-        <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F36" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F37" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F38" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="str">
-        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F39" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="str">
-        <v>479_绿灵草_lepidium_undefined_1bunch</v>
-      </c>
-      <c r="F40" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="str">
-        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
-      </c>
-      <c r="F41" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>2</v>
-      </c>
-      <c r="C42" t="str">
-        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
-      </c>
-      <c r="F42" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="str">
-        <v>731_芍药冰点_undefined_undefined_10stems</v>
-      </c>
-      <c r="F43" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="str">
-        <v>733_芍药弗莱明_Fleming_undefined_10stems</v>
-      </c>
-      <c r="F44" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>3</v>
-      </c>
-      <c r="C45" t="str">
-        <v>731_芍药冰点_undefined_undefined_10stems</v>
-      </c>
-      <c r="F45" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="str">
-        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F46" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="str">
-        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
-      </c>
-      <c r="F47" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="str">
-        <v>552_蓝盆花紫色_Scabiosa caucasica purple_undefined_1bunch</v>
-      </c>
-      <c r="F48" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="str">
-        <v>424_鼠尾白色_veronica white_undefined_1bunch</v>
-      </c>
-      <c r="F49" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" xml:space="preserve">
-      <c r="C50" t="str" xml:space="preserve">
-        <v xml:space="preserve">740_袋鼠爪橙_Kangaroo Paw
-red /green /orange / yellow_undefined_1bunch</v>
-      </c>
-      <c r="F50" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="str">
-        <v>504_大花葱_Allium _undefined_1bunch</v>
-      </c>
-      <c r="F51" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="str">
-        <v>504_大花葱_Allium _undefined_1bunch</v>
-      </c>
-      <c r="F52" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>4</v>
-      </c>
-      <c r="C53" t="str">
-        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
-      </c>
-      <c r="F53" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="str">
-        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
-      </c>
-      <c r="F54" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="str">
-        <v>599_黄金叶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F55" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="str">
-        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
-      </c>
-      <c r="F56" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="str">
-        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F57" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="str">
-        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
-      </c>
-      <c r="F58" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" t="str">
-        <v>103_绣球秋蓝_Hydrangea Vintage Blue_Hydrangea L._1stem</v>
-      </c>
-      <c r="F59" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F60" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" t="str">
-        <v>239_流星雨_Fire Works_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F61" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="str">
-        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F62" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" t="str">
-        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F63" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="str">
-        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F64" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="str">
-        <v>68_粉黛_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F65" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="str">
-        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
-      </c>
-      <c r="F66" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" t="str">
-        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F67" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="str">
         <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F68" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" xml:space="preserve">
-      <c r="C69" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
-      </c>
-      <c r="F69" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" xml:space="preserve">
-      <c r="A70" t="str">
-        <v>5</v>
-      </c>
-      <c r="C70" t="str" xml:space="preserve">
-        <v xml:space="preserve">373_龙柳_Salix
-_undefined_1bunch</v>
-      </c>
-      <c r="F70" t="str">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L70"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1093,10 +747,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01596101552053171015151510151010101515121010102108402020117546105301520456101010105101015510520151010101010551010101520</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>0875579351021020113101052020510410810101010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -686,6 +686,9 @@
       <c r="C31" t="str">
         <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -747,7 +750,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0875579351021020113101052020510410810101010100</v>
+        <v>0875579351021020113101052020510410810101010105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -690,9 +690,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>3</v>
+      </c>
+      <c r="C32" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F32" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>4</v>
+      </c>
+      <c r="C33" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>156_摩卡/太妃糖_Toffee_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>563_星芹_Astrantia_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>657_大丽花 x元素_undefined_undefined_5stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -750,7 +833,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0875579351021020113101052020510410810101010105</v>
+        <v>087557935102102011310105202051041081010101010525274101054100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -772,6 +772,9 @@
       <c r="A41" t="str">
         <v>5</v>
       </c>
+      <c r="C41" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -775,6 +775,9 @@
       <c r="C41" t="str">
         <v>653_大丽花 黑_undefined_undefined_5stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -836,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>087557935102102011310105202051041081010101010525274101054100</v>
+        <v>087557935102102011310105202051041081010101010525274101054102</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -776,12 +776,74 @@
         <v>653_大丽花 黑_undefined_undefined_5stems</v>
       </c>
       <c r="F41" t="str">
-        <v>2</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>671_大丽花 黄_undefined_undefined_5stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>744_永生吊米深红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>6</v>
+      </c>
+      <c r="C44" t="str">
+        <v>474_掌 黑红色_anthurium_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>7</v>
+      </c>
+      <c r="C45" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>726_鸢尾叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L48"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -839,7 +901,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>087557935102102011310105202051041081010101010525274101054102</v>
+        <v>0875579351021020113101052020510410810101010105252741010541025108161510830</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -841,9 +841,89 @@
         <v>30</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>557_山茶花_camellia_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>358_海桐叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>331_猫尾草_cat tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L48"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L58"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -901,7 +981,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0875579351021020113101052020510410810101010105252741010541025108161510830</v>
+        <v>087557935102102011310105202051041081010101010525274101054102510816151083012221510810520100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -920,6 +920,9 @@
       <c r="C58" t="str">
         <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
       </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -981,7 +984,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>087557935102102011310105202051041081010101010525274101054102510816151083012221510810520100</v>
+        <v>087557935102102011310105202051041081010101010525274101054102510816151083012221510810520105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -924,9 +924,25 @@
         <v>5</v>
       </c>
     </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L60"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -984,7 +1000,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>087557935102102011310105202051041081010101010525274101054102510816151083012221510810520105</v>
+        <v>08755793510210201131010520205104108101010101052527410105410251081615108301222151081052010555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-13.xlsx
@@ -1002,6 +1002,9 @@
       <c r="G2" t="str">
         <v>08755793510210201131010520205104108101010101052527410105410251081615108301222151081052010555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
